--- a/整合资源/E-R实体/商品 类.xlsx
+++ b/整合资源/E-R实体/商品 类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20496" windowHeight="8292"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20496" windowHeight="8232"/>
   </bookViews>
   <sheets>
     <sheet name="Goods" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,43 +128,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售出时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>上架时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售出时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上架时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsQuantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsUserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsdetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsSupport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsLeaveWords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsSoldoutDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,23 +232,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
+    <t>goodsStartSolding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,7 +566,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -549,6 +593,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -560,6 +607,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -571,6 +621,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -582,6 +635,9 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -593,6 +649,9 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -604,6 +663,9 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -615,6 +677,9 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -626,6 +691,9 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -637,6 +705,9 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -648,6 +719,9 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -659,6 +733,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -670,6 +747,9 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -681,29 +761,17 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
       <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
+    </row>
+    <row r="16" spans="1:4" ht="13.5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -716,10 +784,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -737,10 +808,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +846,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -813,10 +884,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -851,10 +922,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -889,10 +960,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -927,10 +998,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -965,10 +1036,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
